--- a/medicine/Mort/Cimetière_de_la_vallée/Cimetière_de_la_vallée.xlsx
+++ b/medicine/Mort/Cimetière_de_la_vallée/Cimetière_de_la_vallée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_vall%C3%A9e</t>
+          <t>Cimetière_de_la_vallée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la vallée (Valley Cemetery) ou le cimetière de la rue de la vallée (Valley Street Cemetery) est un cimetière public situé à Manchester, New Hampshire, aux États-Unis. Il est délimité à l'est par la Pine Street, au nord par Auburn Street, à l'ouest par la Willow Street, et, au sud, par Valley Street, à partir de laquelle il tire son nom.
 Il est créé dans les années 1840, lorsque l'Amoskeag Manufacturing Company a fait don de 20 acres (80 937,1284 m2) de terrain dans le centre-ville de Manchester à la ville dans le but de créer un lieu de sépulture.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_vall%C3%A9e</t>
+          <t>Cimetière_de_la_vallée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Sépultures notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beaucoup des dirigeants de la ville ont été enterrés dans le cimetière de la vallée, y compris :
-Les maires de Manchester Jacob F. James, Warren L. Lane, Alonzo Smith, David A. Bunton, Darwin J. Daniels, Joseph B. Clark, David B. Varney et William C. Clarke[1]
+Les maires de Manchester Jacob F. James, Warren L. Lane, Alonzo Smith, David A. Bunton, Darwin J. Daniels, Joseph B. Clark, David B. Varney et William C. Clarke
 Le gouverneur Frederick Smyth (1819-1899), dont l'imposant tombeau est l'un des joyaux du cimetière
 Le gouverneur Moody Currier (1806-1898)
 Le membre du congrès Ira Allen Eastman (1809-1881)
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_vall%C3%A9e</t>
+          <t>Cimetière_de_la_vallée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Efforts de restauration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin du 20e siècle, le cimetière a été reconnu par beaucoup comme en sérieux déclin, et de son patrimoine comme un cimetière paysager a été oublié depuis longtemps par la plupart. En 2002, l'intérêt de l'Education Continuum à l'université de Southern New Hampshire a stimulé la création des amis du cimetière de la vallée, organisation communautaire à but non lucratif vouée à la collecte de fonds pour le cimetière et la supervision de sa restauration[2]. Le groupe s'est associé à des fonctionnaires de la ville pour coordonner les efforts en matière d'entretien et a recueilli des centaines de milliers de dollars de subventions pour la future restauration. Un schéma directeur a été écrit qui servira de guide pour la future restauration du cimetière. La porte Currier a été restauré en 2004.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du 20e siècle, le cimetière a été reconnu par beaucoup comme en sérieux déclin, et de son patrimoine comme un cimetière paysager a été oublié depuis longtemps par la plupart. En 2002, l'intérêt de l'Education Continuum à l'université de Southern New Hampshire a stimulé la création des amis du cimetière de la vallée, organisation communautaire à but non lucratif vouée à la collecte de fonds pour le cimetière et la supervision de sa restauration. Le groupe s'est associé à des fonctionnaires de la ville pour coordonner les efforts en matière d'entretien et a recueilli des centaines de milliers de dollars de subventions pour la future restauration. Un schéma directeur a été écrit qui servira de guide pour la future restauration du cimetière. La porte Currier a été restauré en 2004.
 Depuis 2003, les amis du cimetière de la vallée a accueilli festival annuel de la fraise dans le cimetière, insistant sur son patrimoine précédent comme un « cimetière paysager » qui existe pour être apprécié par les résidents.
 </t>
         </is>
